--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dll3-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dll3-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Dll3</t>
+  </si>
+  <si>
+    <t>Notch3</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Dll3</t>
-  </si>
-  <si>
-    <t>Notch3</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.390969</v>
+        <v>0.01272866666666667</v>
       </c>
       <c r="H2">
-        <v>1.172907</v>
+        <v>0.038186</v>
       </c>
       <c r="I2">
-        <v>0.3711714568353178</v>
+        <v>0.04860514461513396</v>
       </c>
       <c r="J2">
-        <v>0.3711714568353179</v>
+        <v>0.04860514461513396</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.457778999999999</v>
+        <v>3.241087666666667</v>
       </c>
       <c r="N2">
-        <v>22.373337</v>
+        <v>9.723262999999999</v>
       </c>
       <c r="O2">
-        <v>0.08029647035915141</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="P2">
-        <v>0.0802964703591514</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="Q2">
-        <v>2.915760397850999</v>
+        <v>0.04125472454644444</v>
       </c>
       <c r="R2">
-        <v>26.241843580659</v>
+        <v>0.371292520918</v>
       </c>
       <c r="S2">
-        <v>0.02980375788194015</v>
+        <v>0.001208449236757456</v>
       </c>
       <c r="T2">
-        <v>0.02980375788194015</v>
+        <v>0.001208449236757456</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.390969</v>
+        <v>0.01272866666666667</v>
       </c>
       <c r="H3">
-        <v>1.172907</v>
+        <v>0.038186</v>
       </c>
       <c r="I3">
-        <v>0.3711714568353178</v>
+        <v>0.04860514461513396</v>
       </c>
       <c r="J3">
-        <v>0.3711714568353179</v>
+        <v>0.04860514461513396</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>8.197526999999999</v>
       </c>
       <c r="O3">
-        <v>0.02942039820764526</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="P3">
-        <v>0.02942039820764525</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="Q3">
-        <v>1.068326311221</v>
+        <v>0.03478119622466666</v>
       </c>
       <c r="R3">
-        <v>9.614936800988998</v>
+        <v>0.313030766022</v>
       </c>
       <c r="S3">
-        <v>0.01092001206340686</v>
+        <v>0.001018824158767344</v>
       </c>
       <c r="T3">
-        <v>0.01092001206340686</v>
+        <v>0.001018824158767344</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.390969</v>
+        <v>0.01272866666666667</v>
       </c>
       <c r="H4">
-        <v>1.172907</v>
+        <v>0.038186</v>
       </c>
       <c r="I4">
-        <v>0.3711714568353178</v>
+        <v>0.04860514461513396</v>
       </c>
       <c r="J4">
-        <v>0.3711714568353179</v>
+        <v>0.04860514461513396</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>82.68775466666666</v>
+        <v>124.3864796666667</v>
       </c>
       <c r="N4">
-        <v>248.063264</v>
+        <v>373.159439</v>
       </c>
       <c r="O4">
-        <v>0.8902831314332034</v>
+        <v>0.9541761800492348</v>
       </c>
       <c r="P4">
-        <v>0.8902831314332033</v>
+        <v>0.9541761800492349</v>
       </c>
       <c r="Q4">
-        <v>32.32834875427199</v>
+        <v>1.583274037517111</v>
       </c>
       <c r="R4">
-        <v>290.955138788448</v>
+        <v>14.249466337654</v>
       </c>
       <c r="S4">
-        <v>0.3304476868899708</v>
+        <v>0.04637787121960916</v>
       </c>
       <c r="T4">
-        <v>0.3304476868899708</v>
+        <v>0.04637787121960916</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -726,10 +726,10 @@
         <v>0.747451</v>
       </c>
       <c r="I5">
-        <v>0.236534078646487</v>
+        <v>0.9513948553848661</v>
       </c>
       <c r="J5">
-        <v>0.236534078646487</v>
+        <v>0.9513948553848661</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.457778999999999</v>
+        <v>3.241087666666667</v>
       </c>
       <c r="N5">
-        <v>22.373337</v>
+        <v>9.723262999999999</v>
       </c>
       <c r="O5">
-        <v>0.08029647035915141</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="P5">
-        <v>0.0802964703591514</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="Q5">
-        <v>1.858108123776333</v>
+        <v>0.8075180725125556</v>
       </c>
       <c r="R5">
-        <v>16.722973113987</v>
+        <v>7.267662652613</v>
       </c>
       <c r="S5">
-        <v>0.01899285163496683</v>
+        <v>0.02365412953604979</v>
       </c>
       <c r="T5">
-        <v>0.01899285163496683</v>
+        <v>0.0236541295360498</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +767,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -788,10 +788,10 @@
         <v>0.747451</v>
       </c>
       <c r="I6">
-        <v>0.236534078646487</v>
+        <v>0.9513948553848661</v>
       </c>
       <c r="J6">
-        <v>0.236534078646487</v>
+        <v>0.9513948553848661</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8.197526999999999</v>
       </c>
       <c r="O6">
-        <v>0.02942039820764526</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="P6">
-        <v>0.02942039820764525</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="Q6">
         <v>0.6808055281863333</v>
@@ -818,10 +818,10 @@
         <v>6.127249753676999</v>
       </c>
       <c r="S6">
-        <v>0.006958926783458131</v>
+        <v>0.01994241701919054</v>
       </c>
       <c r="T6">
-        <v>0.006958926783458128</v>
+        <v>0.01994241701919054</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,10 +850,10 @@
         <v>0.747451</v>
       </c>
       <c r="I7">
-        <v>0.236534078646487</v>
+        <v>0.9513948553848661</v>
       </c>
       <c r="J7">
-        <v>0.236534078646487</v>
+        <v>0.9513948553848661</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.68775466666666</v>
+        <v>124.3864796666667</v>
       </c>
       <c r="N7">
-        <v>248.063264</v>
+        <v>373.159439</v>
       </c>
       <c r="O7">
-        <v>0.8902831314332034</v>
+        <v>0.9541761800492348</v>
       </c>
       <c r="P7">
-        <v>0.8902831314332033</v>
+        <v>0.9541761800492349</v>
       </c>
       <c r="Q7">
-        <v>20.60168163778489</v>
+        <v>30.99093287110989</v>
       </c>
       <c r="R7">
-        <v>185.415134740064</v>
+        <v>278.918395839989</v>
       </c>
       <c r="S7">
-        <v>0.2105823002280621</v>
+        <v>0.9077983088296256</v>
       </c>
       <c r="T7">
-        <v>0.2105823002280621</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.4132186666666666</v>
-      </c>
-      <c r="H8">
-        <v>1.239656</v>
-      </c>
-      <c r="I8">
-        <v>0.3922944645181952</v>
-      </c>
-      <c r="J8">
-        <v>0.3922944645181952</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>7.457778999999999</v>
-      </c>
-      <c r="N8">
-        <v>22.373337</v>
-      </c>
-      <c r="O8">
-        <v>0.08029647035915141</v>
-      </c>
-      <c r="P8">
-        <v>0.0802964703591514</v>
-      </c>
-      <c r="Q8">
-        <v>3.081693494674666</v>
-      </c>
-      <c r="R8">
-        <v>27.735241452072</v>
-      </c>
-      <c r="S8">
-        <v>0.03149986084224443</v>
-      </c>
-      <c r="T8">
-        <v>0.03149986084224443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.4132186666666666</v>
-      </c>
-      <c r="H9">
-        <v>1.239656</v>
-      </c>
-      <c r="I9">
-        <v>0.3922944645181952</v>
-      </c>
-      <c r="J9">
-        <v>0.3922944645181952</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.732509</v>
-      </c>
-      <c r="N9">
-        <v>8.197526999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.02942039820764526</v>
-      </c>
-      <c r="P9">
-        <v>0.02942039820764525</v>
-      </c>
-      <c r="Q9">
-        <v>1.129123725634666</v>
-      </c>
-      <c r="R9">
-        <v>10.162113530712</v>
-      </c>
-      <c r="S9">
-        <v>0.01154145936078027</v>
-      </c>
-      <c r="T9">
-        <v>0.01154145936078026</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.4132186666666666</v>
-      </c>
-      <c r="H10">
-        <v>1.239656</v>
-      </c>
-      <c r="I10">
-        <v>0.3922944645181952</v>
-      </c>
-      <c r="J10">
-        <v>0.3922944645181952</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>82.68775466666666</v>
-      </c>
-      <c r="N10">
-        <v>248.063264</v>
-      </c>
-      <c r="O10">
-        <v>0.8902831314332034</v>
-      </c>
-      <c r="P10">
-        <v>0.8902831314332033</v>
-      </c>
-      <c r="Q10">
-        <v>34.16812373302044</v>
-      </c>
-      <c r="R10">
-        <v>307.513113597184</v>
-      </c>
-      <c r="S10">
-        <v>0.3492531443151705</v>
-      </c>
-      <c r="T10">
-        <v>0.3492531443151705</v>
+        <v>0.9077983088296258</v>
       </c>
     </row>
   </sheetData>
